--- a/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
+++ b/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="146">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -610,19 +610,19 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
+    <t>REFNO</t>
   </si>
   <si>
-    <t>forename</t>
+    <t>FORENAME</t>
   </si>
   <si>
-    <t>surname</t>
+    <t>SURNAME</t>
   </si>
   <si>
-    <t>ee</t>
+    <t>EE</t>
   </si>
   <si>
-    <t>er</t>
+    <t>ER</t>
   </si>
   <si>
     <t>839415</t>
@@ -647,12 +647,6 @@
   </si>
   <si>
     <t>931165</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ER</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -5232,7 +5226,7 @@
     <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
@@ -5241,7 +5235,7 @@
     <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
@@ -5271,40 +5265,40 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="111" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -10729,7 +10723,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -10747,7 +10741,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -10784,24 +10778,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -16077,7 +16071,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -16095,7 +16089,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -16150,24 +16144,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -21445,7 +21439,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -21463,7 +21457,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -21481,7 +21475,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="110"/>
       <c r="B14" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -21723,24 +21717,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -26948,7 +26942,7 @@
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -26960,7 +26954,7 @@
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -26972,7 +26966,7 @@
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="110"/>
       <c r="B14" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -27005,32 +26999,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="111" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -32272,7 +32266,7 @@
     <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
@@ -32287,7 +32281,7 @@
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
@@ -32302,7 +32296,7 @@
     <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="110"/>
       <c r="B14" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>90</v>
@@ -32338,32 +32332,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="111" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -37660,7 +37654,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -37678,7 +37672,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -37696,7 +37690,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="110"/>
       <c r="B14" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -37733,24 +37727,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -37775,24 +37769,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -43279,7 +43273,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -43297,7 +43291,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -43315,7 +43309,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="110"/>
       <c r="B14" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -43406,24 +43400,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -48655,10 +48649,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="107" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B1" s="107" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -48671,22 +48665,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="107" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -52618,32 +52612,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="111" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
+++ b/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
@@ -4,42 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" firstSheet="26" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="13" r:id="rId3"/>
-    <sheet name="$January 2020" sheetId="28" r:id="rId4"/>
-    <sheet name="#January 2020" sheetId="14" r:id="rId5"/>
-    <sheet name="~February 2020" sheetId="2" r:id="rId6"/>
-    <sheet name="February 2020" sheetId="15" r:id="rId7"/>
-    <sheet name="$February 2020" sheetId="16" r:id="rId8"/>
-    <sheet name="March Arrears for 4 members" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="~March 2020" sheetId="4" r:id="rId10"/>
-    <sheet name="March 2020" sheetId="17" r:id="rId11"/>
-    <sheet name="$March 2020" sheetId="18" r:id="rId12"/>
-    <sheet name="~April 2020" sheetId="5" r:id="rId13"/>
-    <sheet name="April 2020" sheetId="19" r:id="rId14"/>
-    <sheet name="$April 2020" sheetId="29" r:id="rId15"/>
-    <sheet name="~May 2020" sheetId="6" r:id="rId16"/>
-    <sheet name="May 2020" sheetId="20" r:id="rId17"/>
-    <sheet name="$May 2020" sheetId="30" r:id="rId18"/>
-    <sheet name="~June 2020" sheetId="7" r:id="rId19"/>
-    <sheet name="June 2020" sheetId="21" r:id="rId20"/>
-    <sheet name="$June 2020" sheetId="31" r:id="rId21"/>
-    <sheet name="~July 2020 " sheetId="8" r:id="rId22"/>
-    <sheet name="July 2020 " sheetId="22" r:id="rId23"/>
-    <sheet name="$July 2020 " sheetId="23" r:id="rId24"/>
-    <sheet name="~August 2020" sheetId="9" r:id="rId25"/>
-    <sheet name="August 2020" sheetId="24" r:id="rId26"/>
-    <sheet name="$August 2020" sheetId="25" r:id="rId27"/>
-    <sheet name="~September 2020" sheetId="10" r:id="rId28"/>
-    <sheet name="September 2020" sheetId="26" r:id="rId29"/>
-    <sheet name="$September 2020" sheetId="32" r:id="rId30"/>
-    <sheet name="~October 2020" sheetId="11" r:id="rId31"/>
-    <sheet name="October 2020" sheetId="27" r:id="rId32"/>
-    <sheet name="$October 2020" sheetId="33" r:id="rId33"/>
-    <sheet name="November 2020" sheetId="12" state="hidden" r:id="rId34"/>
+    <sheet name="#January 2020" sheetId="14" r:id="rId4"/>
+    <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
+    <sheet name="February 2020" sheetId="15" r:id="rId6"/>
+    <sheet name="$February 2020" sheetId="16" r:id="rId7"/>
+    <sheet name="March Arrears for 4 members" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="~March 2020" sheetId="4" r:id="rId9"/>
+    <sheet name="March 2020" sheetId="17" r:id="rId10"/>
+    <sheet name="$March 2020" sheetId="18" r:id="rId11"/>
+    <sheet name="~April 2020" sheetId="5" r:id="rId12"/>
+    <sheet name="April 2020" sheetId="19" r:id="rId13"/>
+    <sheet name="~May 2020" sheetId="6" r:id="rId14"/>
+    <sheet name="May 2020" sheetId="20" r:id="rId15"/>
+    <sheet name="~June 2020" sheetId="7" r:id="rId16"/>
+    <sheet name="June 2020" sheetId="21" r:id="rId17"/>
+    <sheet name="~July 2020 " sheetId="8" r:id="rId18"/>
+    <sheet name="July 2020 " sheetId="22" r:id="rId19"/>
+    <sheet name="$July 2020 " sheetId="23" r:id="rId20"/>
+    <sheet name="~August 2020" sheetId="9" r:id="rId21"/>
+    <sheet name="August 2020" sheetId="24" r:id="rId22"/>
+    <sheet name="$August 2020" sheetId="25" r:id="rId23"/>
+    <sheet name="~September 2020" sheetId="10" r:id="rId24"/>
+    <sheet name="September 2020" sheetId="26" r:id="rId25"/>
+    <sheet name="~October 2020" sheetId="11" r:id="rId26"/>
+    <sheet name="October 2020" sheetId="27" r:id="rId27"/>
+    <sheet name="November 2020" sheetId="12" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -47,7 +41,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -77,7 +71,7 @@
 </comments>
 </file>
 
-<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -97,7 +91,7 @@
 </comments>
 </file>
 
-<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -128,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="226">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -625,25 +619,61 @@
     <t>ER</t>
   </si>
   <si>
+    <t>Refno 0839415 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>839415</t>
+  </si>
+  <si>
+    <t>Refno 0862567 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>862567</t>
   </si>
   <si>
+    <t>Refno 0881957 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>881957</t>
+  </si>
+  <si>
+    <t>Refno 0886344 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>886344</t>
   </si>
   <si>
+    <t>Refno 0896998 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>896998</t>
+  </si>
+  <si>
+    <t>Refno 0896997 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>896997</t>
   </si>
   <si>
+    <t>Refno 0900332 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>900332</t>
+  </si>
+  <si>
+    <t>Refno 0928091 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0931165 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>931165</t>
@@ -661,7 +691,175 @@
     <t>7837</t>
   </si>
   <si>
-    <t>2_Errors_found</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
+  </si>
+  <si>
+    <t>1_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -676,28 +874,104 @@
     <t>No Contributions columns (EE/ER/AVC) were found</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
+    <t>Refno 0839415 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
   </si>
   <si>
-    <t>The Scheme ID is missing</t>
+    <t>Refno 0862567 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0881957 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0886344 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0896998 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0896997 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0900332 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0928091 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0931165 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0935932 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0943285 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>943285</t>
   </si>
   <si>
+    <t>Refno 0946506 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>946506</t>
   </si>
   <si>
-    <t>3_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>No Forename column was found</t>
   </si>
   <si>
+    <t>Refno 0935932 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0943285 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0946506 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0962325 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>962325</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>Refno 0962325 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
   </si>
 </sst>
 </file>
@@ -710,7 +984,7 @@
     <numFmt numFmtId="166" formatCode="_-[$€-1809]* #,##0.00_-;\-[$€-1809]* #,##0.00_-;_-[$€-1809]* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +1110,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -981,7 +1270,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1211,12 +1500,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -5108,151 +5398,9 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
-    <col min="2" max="16384" width="9.25" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5264,41 +5412,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -10503,7 +10643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10516,7 +10656,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -10540,10 +10680,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -10558,10 +10700,12 @@
         <v>625.33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -10576,10 +10720,12 @@
         <v>1355.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -10594,10 +10740,12 @@
         <v>373.12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -10612,10 +10760,12 @@
         <v>3333.03</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -10630,10 +10780,12 @@
         <v>723.33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -10648,10 +10800,12 @@
         <v>444.38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -10666,8 +10820,10 @@
         <v>2056.67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -10684,10 +10840,12 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -10702,8 +10860,10 @@
         <v>1899.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -10720,10 +10880,12 @@
         <v>1708.33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -10738,10 +10900,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -10762,49 +10926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -15851,7 +15973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15864,7 +15986,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.5" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -15888,10 +16010,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -15906,10 +16030,12 @@
         <v>798.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -15924,10 +16050,12 @@
         <v>1710.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -15942,10 +16070,12 @@
         <v>480.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -15960,10 +16090,12 @@
         <v>4131.44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -15978,10 +16110,12 @@
         <v>928.33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -15996,10 +16130,12 @@
         <v>317.29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -16014,8 +16150,10 @@
         <v>2642.08</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -16032,10 +16170,12 @@
         <v>250.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -16050,8 +16190,10 @@
         <v>2374.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -16068,10 +16210,12 @@
         <v>2141.67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -16086,10 +16230,12 @@
         <v>1500.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -16104,8 +16250,10 @@
         <v>1099.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B14" s="107" t="s">
         <v>88</v>
       </c>
@@ -16128,49 +16276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -21219,7 +21325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -21232,7 +21338,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -21256,10 +21362,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -21274,10 +21382,12 @@
         <v>451.79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -21292,10 +21402,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -21310,10 +21422,12 @@
         <v>266.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -21328,10 +21442,12 @@
         <v>2437.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -21346,10 +21462,12 @@
         <v>518.33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -21364,10 +21482,12 @@
         <v>317.29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -21382,8 +21502,10 @@
         <v>1471.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -21400,10 +21522,12 @@
         <v>150.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -21418,8 +21542,10 @@
         <v>1424.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -21436,10 +21562,12 @@
         <v>1275.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -21454,10 +21582,12 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -21472,10 +21602,12 @@
         <v>366.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -21496,254 +21628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
-    <col min="2" max="16384" width="9.25" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="107">
-        <v>281.75</v>
-      </c>
-      <c r="F2" s="107">
-        <v>140.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="107">
-        <v>666.67</v>
-      </c>
-      <c r="F3" s="107">
-        <v>333.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="107">
-        <v>177.5</v>
-      </c>
-      <c r="F4" s="107">
-        <v>88.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="107">
-        <v>1625.0</v>
-      </c>
-      <c r="F5" s="107">
-        <v>812.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="107">
-        <v>326.67</v>
-      </c>
-      <c r="F6" s="107">
-        <v>163.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="107">
-        <v>205.42</v>
-      </c>
-      <c r="F7" s="107">
-        <v>102.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="107">
-        <v>920.83</v>
-      </c>
-      <c r="F8" s="107">
-        <v>460.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="107">
-        <v>100.0</v>
-      </c>
-      <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="107">
-        <v>920.83</v>
-      </c>
-      <c r="F10" s="107">
-        <v>460.42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -26788,7 +26673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -26801,7 +26686,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -26819,10 +26704,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -26831,10 +26718,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -26843,10 +26732,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -26855,10 +26746,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -26867,10 +26760,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -26879,10 +26774,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -26891,10 +26788,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -26903,8 +26802,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -26915,10 +26816,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -26927,8 +26830,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -26939,10 +26844,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -26951,10 +26858,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -26963,10 +26872,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -26981,12 +26892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -26998,33 +26909,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +26936,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="47.25" style="107"/>
+    <col min="2" max="16384" width="9.25" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="107">
+        <v>281.75</v>
+      </c>
+      <c r="F2" s="107">
+        <v>140.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="107">
+        <v>666.67</v>
+      </c>
+      <c r="F3" s="107">
+        <v>333.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="107">
+        <v>177.5</v>
+      </c>
+      <c r="F4" s="107">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="107">
+        <v>1625.0</v>
+      </c>
+      <c r="F5" s="107">
+        <v>812.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="107">
+        <v>326.67</v>
+      </c>
+      <c r="F6" s="107">
+        <v>163.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="107">
+        <v>205.42</v>
+      </c>
+      <c r="F7" s="107">
+        <v>102.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="107">
+        <v>920.83</v>
+      </c>
+      <c r="F8" s="107">
+        <v>460.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="107">
+        <v>100.0</v>
+      </c>
+      <c r="F9" s="107">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="107">
+        <v>920.83</v>
+      </c>
+      <c r="F10" s="107">
+        <v>460.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -32079,7 +32205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -32092,7 +32218,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -32113,10 +32239,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="110" t="s">
+        <v>203</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>13</v>
@@ -32128,10 +32256,12 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:5" ht="45">
+      <c r="A3" s="110" t="s">
+        <v>204</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>15</v>
@@ -32143,10 +32273,12 @@
         <v>2775.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="110" t="s">
+        <v>205</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>17</v>
@@ -32158,10 +32290,12 @@
         <v>800.62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="110" t="s">
+        <v>206</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>19</v>
@@ -32173,10 +32307,12 @@
         <v>4400.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="110" t="s">
+        <v>207</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>21</v>
@@ -32188,10 +32324,12 @@
         <v>1543.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="110" t="s">
+        <v>208</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>23</v>
@@ -32203,10 +32341,12 @@
         <v>317.29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="110" t="s">
+        <v>209</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>25</v>
@@ -32218,8 +32358,10 @@
         <v>4398.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="110" t="s">
+        <v>210</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -32233,10 +32375,12 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="110" t="s">
+        <v>211</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>31</v>
@@ -32248,8 +32392,10 @@
         <v>3799.17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="110" t="s">
+        <v>212</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -32263,10 +32409,12 @@
         <v>3441.67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="110" t="s">
+        <v>213</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
@@ -32278,10 +32426,12 @@
         <v>3000.0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="110" t="s">
+        <v>215</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
@@ -32293,10 +32443,12 @@
         <v>2199.0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:5" ht="45">
+      <c r="A14" s="110" t="s">
+        <v>225</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>90</v>
@@ -32314,12 +32466,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -32331,33 +32483,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -32366,7 +32510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -37434,7 +37578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -37447,7 +37591,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -37471,10 +37615,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -37489,10 +37635,12 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -37507,10 +37655,12 @@
         <v>3130.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -37525,10 +37675,12 @@
         <v>907.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -37543,10 +37695,12 @@
         <v>4400.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -37561,10 +37715,12 @@
         <v>1748.33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -37579,10 +37735,12 @@
         <v>317.29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -37597,8 +37755,10 @@
         <v>4400.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -37615,10 +37775,12 @@
         <v>450.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -37633,8 +37795,10 @@
         <v>4274.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -37651,10 +37815,12 @@
         <v>4400.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -37669,10 +37835,12 @@
         <v>3500.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -37687,10 +37855,12 @@
         <v>2565.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -37711,91 +37881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -43053,7 +43139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -43066,7 +43152,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.5" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -43090,10 +43176,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -43108,10 +43196,12 @@
         <v>451.79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -43126,10 +43216,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -43144,10 +43236,12 @@
         <v>266.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -43162,10 +43256,12 @@
         <v>2437.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -43180,10 +43276,12 @@
         <v>518.33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -43198,10 +43296,12 @@
         <v>317.29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -43216,8 +43316,10 @@
         <v>1471.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -43234,10 +43336,12 @@
         <v>150.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -43252,8 +43356,10 @@
         <v>1424.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>219</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -43270,10 +43376,12 @@
         <v>1275.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -43288,10 +43396,12 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -43306,10 +43416,12 @@
         <v>366.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -43324,8 +43436,10 @@
         <v>366.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B15" s="107" t="s">
         <v>88</v>
       </c>
@@ -43342,8 +43456,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B16" s="107" t="s">
         <v>88</v>
       </c>
@@ -43360,8 +43476,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="110"/>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B17" s="107" t="s">
         <v>88</v>
       </c>
@@ -43384,49 +43502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -48634,9 +48710,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -48644,7 +48720,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="107"/>
+    <col min="1" max="1" width="17.75" style="107"/>
+    <col min="2" max="2" width="14.125" style="107"/>
+    <col min="3" max="3" width="8.25" style="107"/>
+    <col min="4" max="4" width="15.75" style="107"/>
+    <col min="5" max="5" width="13.25" style="107"/>
+    <col min="6" max="6" width="12.625" style="107"/>
+    <col min="7" max="7" width="15.75" style="107"/>
+    <col min="8" max="8" width="10.5" style="107"/>
+    <col min="9" max="9" width="22.125" style="107"/>
+    <col min="10" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -48665,22 +48750,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="107" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="107" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="107" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="107" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -48689,7 +49064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -52449,7 +52824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -52462,7 +52837,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -52480,10 +52855,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -52492,10 +52869,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -52504,10 +52883,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -52516,10 +52897,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -52528,10 +52911,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -52540,10 +52925,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -52552,10 +52939,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -52564,8 +52953,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -52576,10 +52967,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -52594,12 +52987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -52611,33 +53004,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -52646,7 +53031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -53928,7 +54313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -57959,4 +58344,170 @@
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0" footer="0"/>
   <pageSetup orientation="landscape" paperSize="9" scale="63"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="47.25" style="107"/>
+    <col min="2" max="16384" width="9.25" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45">
+      <c r="A8" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45">
+      <c r="A11" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
+++ b/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
@@ -1223,14 +1223,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1243,6 +1235,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1270,7 +1270,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1497,11 +1497,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5412,16 +5415,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10701,7 +10704,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -10721,7 +10724,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -10741,7 +10744,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -10761,7 +10764,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -10781,7 +10784,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -10801,7 +10804,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -10821,7 +10824,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -10841,7 +10844,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -10861,7 +10864,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -10881,7 +10884,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -10901,7 +10904,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -16031,7 +16034,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -16051,7 +16054,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -16071,7 +16074,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -16091,7 +16094,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -16111,7 +16114,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -16131,7 +16134,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -16151,7 +16154,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -16171,7 +16174,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -16191,7 +16194,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -16211,7 +16214,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -16231,7 +16234,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -16251,7 +16254,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="107" t="s">
@@ -21383,7 +21386,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -21403,7 +21406,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -21423,7 +21426,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -21443,7 +21446,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -21463,7 +21466,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -21483,7 +21486,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -21503,7 +21506,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -21523,7 +21526,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -21543,7 +21546,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -21563,7 +21566,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -21583,7 +21586,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -21603,7 +21606,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>223</v>
       </c>
       <c r="B14" s="107" t="s">
@@ -26719,7 +26722,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -26733,7 +26736,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -26747,7 +26750,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -26761,7 +26764,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -26775,7 +26778,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -26789,7 +26792,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -26803,7 +26806,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -26817,7 +26820,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -26831,7 +26834,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -26845,7 +26848,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -26859,7 +26862,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -26873,7 +26876,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>223</v>
       </c>
       <c r="B14" s="107" t="s">
@@ -26909,16 +26912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
       </c>
     </row>
@@ -26994,7 +26997,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -27014,7 +27017,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -27034,7 +27037,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -27054,7 +27057,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -27074,7 +27077,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -27094,7 +27097,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -27114,7 +27117,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -27134,7 +27137,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -32257,7 +32260,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>204</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -32274,7 +32277,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>205</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -32291,7 +32294,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -32308,7 +32311,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -32325,7 +32328,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -32342,7 +32345,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -32359,7 +32362,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -32376,7 +32379,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -32393,7 +32396,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>212</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -32410,7 +32413,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -32427,7 +32430,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>215</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -32444,7 +32447,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>225</v>
       </c>
       <c r="B14" s="107" t="s">
@@ -32483,16 +32486,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
       </c>
     </row>
@@ -37636,7 +37639,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -37656,7 +37659,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -37676,7 +37679,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -37696,7 +37699,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -37716,7 +37719,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -37736,7 +37739,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -37756,7 +37759,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -37776,7 +37779,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -37796,7 +37799,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -37816,7 +37819,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -37836,7 +37839,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -37856,7 +37859,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>223</v>
       </c>
       <c r="B14" s="107" t="s">
@@ -43197,7 +43200,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -43217,7 +43220,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -43237,7 +43240,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -43257,7 +43260,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -43277,7 +43280,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -43297,7 +43300,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -43317,7 +43320,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -43337,7 +43340,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -43357,7 +43360,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -43377,7 +43380,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -43397,7 +43400,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
@@ -43417,7 +43420,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>223</v>
       </c>
       <c r="B14" s="107" t="s">
@@ -43437,7 +43440,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="111" t="s">
         <v>222</v>
       </c>
       <c r="B15" s="107" t="s">
@@ -43457,7 +43460,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="111" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="107" t="s">
@@ -43477,7 +43480,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="111" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -48769,31 +48772,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="112" t="s">
         <v>150</v>
       </c>
     </row>
@@ -52870,7 +52873,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -52884,7 +52887,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -52898,7 +52901,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -52912,7 +52915,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -52926,7 +52929,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -52940,7 +52943,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -52954,7 +52957,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -52968,7 +52971,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -53004,16 +53007,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
       </c>
     </row>
@@ -58386,7 +58389,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>204</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -58397,7 +58400,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>205</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -58408,7 +58411,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -58419,7 +58422,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -58430,7 +58433,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -58441,7 +58444,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -58452,7 +58455,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -58463,7 +58466,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -58474,7 +58477,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>212</v>
       </c>
       <c r="B11" s="107" t="s">
@@ -58485,7 +58488,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="107" t="s">
@@ -58496,7 +58499,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>215</v>
       </c>
       <c r="B13" s="107" t="s">
